--- a/Complete-spreadsheets/EC/F3-list-EC.xlsx
+++ b/Complete-spreadsheets/EC/F3-list-EC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\Complete-spreadsheets\EC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB620E1C-7A6F-4996-9809-5550197E3B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3A206E-A075-46B8-BDE6-7A2F503CC18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,23 +496,23 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
-        <v>17.558311608528349</v>
-      </c>
-      <c r="C2" s="3">
-        <v>19.466721200702391</v>
-      </c>
-      <c r="D2" s="3">
-        <v>15.51603178288884</v>
-      </c>
-      <c r="E2" s="3">
-        <v>3.646889214760384</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1.426505278814594</v>
+      <c r="B2" s="4">
+        <v>8.9667318050000269</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4.0193833573581941</v>
+      </c>
+      <c r="D2" s="4">
+        <v>7.403470972784131</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1.955591818287826</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.8320748039959021</v>
       </c>
       <c r="G2">
-        <v>57.614459085694548</v>
+        <v>24.177252757426078</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -521,10 +521,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>26</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -535,22 +535,22 @@
         <v>9</v>
       </c>
       <c r="B3" s="4">
-        <v>8.9667318050000269</v>
+        <v>32.197613376434781</v>
       </c>
       <c r="C3" s="4">
-        <v>4.0193833573581941</v>
+        <v>7.7571755683163772</v>
       </c>
       <c r="D3" s="4">
-        <v>7.403470972784131</v>
+        <v>4.8274411496404364</v>
       </c>
       <c r="E3" s="4">
-        <v>1.955591818287826</v>
+        <v>4.4490758417398162</v>
       </c>
       <c r="F3" s="4">
-        <v>1.8320748039959021</v>
+        <v>1.963247627797055</v>
       </c>
       <c r="G3">
-        <v>24.177252757426078</v>
+        <v>51.194553563928459</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
@@ -572,23 +572,23 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
-        <v>13.217620732822139</v>
-      </c>
-      <c r="C4" s="3">
-        <v>18.302560730467238</v>
-      </c>
-      <c r="D4" s="3">
-        <v>14.5049246038595</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3.3847839384172378</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1.932239909123542</v>
+      <c r="B4" s="4">
+        <v>11.76033273537962</v>
+      </c>
+      <c r="C4" s="4">
+        <v>33.93074968631899</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4.6071463495917024</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2.5664684808087972</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2.201493767458742</v>
       </c>
       <c r="G4">
-        <v>51.342129914689657</v>
+        <v>55.066191019557849</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -597,10 +597,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>14</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>12</v>
@@ -611,22 +611,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="4">
-        <v>32.197613376434781</v>
+        <v>52.854778710400197</v>
       </c>
       <c r="C5" s="4">
-        <v>7.7571755683163772</v>
+        <v>11.728980267128859</v>
       </c>
       <c r="D5" s="4">
-        <v>4.8274411496404364</v>
+        <v>16.19841159986818</v>
       </c>
       <c r="E5" s="4">
-        <v>4.4490758417398162</v>
+        <v>3.5764329672328001</v>
       </c>
       <c r="F5" s="4">
-        <v>1.963247627797055</v>
+        <v>2.5369892848361331</v>
       </c>
       <c r="G5">
-        <v>51.194553563928459</v>
+        <v>86.895592829466196</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
@@ -649,22 +649,22 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>11.76033273537962</v>
+        <v>20.325853623389492</v>
       </c>
       <c r="C6" s="4">
-        <v>33.93074968631899</v>
+        <v>10.98070739663531</v>
       </c>
       <c r="D6" s="4">
-        <v>4.6071463495917024</v>
+        <v>6.6898637279749176</v>
       </c>
       <c r="E6" s="4">
-        <v>2.5664684808087972</v>
+        <v>3.2547944111020319</v>
       </c>
       <c r="F6" s="4">
-        <v>2.201493767458742</v>
+        <v>2.8092726634256309</v>
       </c>
       <c r="G6">
-        <v>55.066191019557849</v>
+        <v>44.060491822527382</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
@@ -687,22 +687,22 @@
         <v>9</v>
       </c>
       <c r="B7" s="4">
-        <v>52.854778710400197</v>
+        <v>110.4074992312234</v>
       </c>
       <c r="C7" s="4">
-        <v>11.728980267128859</v>
+        <v>30.709653545106448</v>
       </c>
       <c r="D7" s="4">
-        <v>16.19841159986818</v>
+        <v>18.848204847412049</v>
       </c>
       <c r="E7" s="4">
-        <v>3.5764329672328001</v>
+        <v>5.4007664871512038</v>
       </c>
       <c r="F7" s="4">
-        <v>2.5369892848361331</v>
+        <v>2.819460508859001</v>
       </c>
       <c r="G7">
-        <v>86.895592829466196</v>
+        <v>168.18558461975209</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
@@ -724,23 +724,23 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
-        <v>16.693554913506539</v>
-      </c>
-      <c r="C8" s="3">
-        <v>6.1692451928224772</v>
-      </c>
-      <c r="D8" s="3">
-        <v>13.09019575034135</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5.2427272059822823</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2.7178182162646598</v>
+      <c r="B8" s="4">
+        <v>11.171129798058031</v>
+      </c>
+      <c r="C8" s="4">
+        <v>8.6211716921538226</v>
+      </c>
+      <c r="D8" s="4">
+        <v>8.9680125043296819</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3.789892099997755</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2.846073309634185</v>
       </c>
       <c r="G8">
-        <v>43.913541278917307</v>
+        <v>35.396279404173477</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
       </c>
       <c r="L8" t="s">
         <v>12</v>
@@ -763,22 +763,22 @@
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>20.325853623389492</v>
+        <v>6.6549687078401094</v>
       </c>
       <c r="C9" s="4">
-        <v>10.98070739663531</v>
+        <v>16.303224321027091</v>
       </c>
       <c r="D9" s="4">
-        <v>6.6898637279749176</v>
+        <v>2.2061818844464329</v>
       </c>
       <c r="E9" s="4">
-        <v>3.2547944111020319</v>
+        <v>2.3367475639245172</v>
       </c>
       <c r="F9" s="4">
-        <v>2.8092726634256309</v>
+        <v>3.1629771965933471</v>
       </c>
       <c r="G9">
-        <v>44.060491822527382</v>
+        <v>30.664099673831501</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
@@ -801,22 +801,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>110.4074992312234</v>
+        <v>12.267434379533229</v>
       </c>
       <c r="C10" s="4">
-        <v>30.709653545106448</v>
+        <v>19.911870341466638</v>
       </c>
       <c r="D10" s="4">
-        <v>18.848204847412049</v>
+        <v>3.5234580044736452</v>
       </c>
       <c r="E10" s="4">
-        <v>5.4007664871512038</v>
+        <v>2.3717135646548009</v>
       </c>
       <c r="F10" s="4">
-        <v>2.819460508859001</v>
+        <v>3.1845302134434328</v>
       </c>
       <c r="G10">
-        <v>168.18558461975209</v>
+        <v>41.25900650357174</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
@@ -839,22 +839,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>11.171129798058031</v>
+        <v>36.363476861966817</v>
       </c>
       <c r="C11" s="4">
-        <v>8.6211716921538226</v>
+        <v>21.90045295565783</v>
       </c>
       <c r="D11" s="4">
-        <v>8.9680125043296819</v>
+        <v>56.222830580964128</v>
       </c>
       <c r="E11" s="4">
-        <v>3.789892099997755</v>
+        <v>6.239673463071437</v>
       </c>
       <c r="F11" s="4">
-        <v>2.846073309634185</v>
+        <v>3.2103158488188459</v>
       </c>
       <c r="G11">
-        <v>35.396279404173477</v>
+        <v>123.93674971047901</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -877,22 +877,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="4">
-        <v>6.6549687078401094</v>
+        <v>9.0748461941652412</v>
       </c>
       <c r="C12" s="4">
-        <v>16.303224321027091</v>
+        <v>45.573879305679867</v>
       </c>
       <c r="D12" s="4">
-        <v>2.2061818844464329</v>
+        <v>13.09555906536392</v>
       </c>
       <c r="E12" s="4">
-        <v>2.3367475639245172</v>
+        <v>2.9434530342819931</v>
       </c>
       <c r="F12" s="4">
-        <v>3.1629771965933471</v>
+        <v>3.262142556548786</v>
       </c>
       <c r="G12">
-        <v>30.664099673831501</v>
+        <v>73.949880156039782</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="4">
-        <v>12.267434379533229</v>
+        <v>24.984053462119</v>
       </c>
       <c r="C13" s="4">
-        <v>19.911870341466638</v>
+        <v>11.36425081975875</v>
       </c>
       <c r="D13" s="4">
-        <v>3.5234580044736452</v>
+        <v>10.578343946786349</v>
       </c>
       <c r="E13" s="4">
-        <v>2.3717135646548009</v>
+        <v>4.1503884384178154</v>
       </c>
       <c r="F13" s="4">
-        <v>3.1845302134434328</v>
+        <v>3.3035730875619511</v>
       </c>
       <c r="G13">
-        <v>41.25900650357174</v>
+        <v>54.380609754643878</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
@@ -953,22 +953,22 @@
         <v>9</v>
       </c>
       <c r="B14" s="4">
-        <v>36.363476861966817</v>
+        <v>132.228909589122</v>
       </c>
       <c r="C14" s="4">
-        <v>21.90045295565783</v>
+        <v>13.38317636968212</v>
       </c>
       <c r="D14" s="4">
-        <v>56.222830580964128</v>
+        <v>29.535408351512491</v>
       </c>
       <c r="E14" s="4">
-        <v>6.239673463071437</v>
+        <v>6.0045239324720541</v>
       </c>
       <c r="F14" s="4">
-        <v>3.2103158488188459</v>
+        <v>3.3833165925744382</v>
       </c>
       <c r="G14">
-        <v>123.93674971047901</v>
+        <v>184.5353348353631</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
@@ -993,23 +993,23 @@
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="3">
-        <v>21.843439292140509</v>
-      </c>
-      <c r="C15" s="3">
-        <v>6.4571373236517378</v>
-      </c>
-      <c r="D15" s="3">
-        <v>2.7879115492744271</v>
-      </c>
-      <c r="E15" s="3">
-        <v>7.0563471301055687</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3.2589871201476468</v>
+      <c r="B15" s="4">
+        <v>26.023898037096149</v>
+      </c>
+      <c r="C15" s="4">
+        <v>17.90090111806623</v>
+      </c>
+      <c r="D15" s="4">
+        <v>68.018149418803631</v>
+      </c>
+      <c r="E15" s="4">
+        <v>8.3769613927095108</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3.399668795868779</v>
       </c>
       <c r="G15">
-        <v>41.403822415319887</v>
+        <v>123.7195787625443</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1020,8 +1020,8 @@
       <c r="J15">
         <v>17</v>
       </c>
-      <c r="K15" s="3">
-        <v>1</v>
+      <c r="K15" s="4">
+        <v>0</v>
       </c>
       <c r="L15" t="s">
         <v>12</v>
@@ -1035,22 +1035,22 @@
         <v>9</v>
       </c>
       <c r="B16" s="4">
-        <v>9.0748461941652412</v>
+        <v>9.5554795180264893</v>
       </c>
       <c r="C16" s="4">
-        <v>45.573879305679867</v>
+        <v>18.603015977784079</v>
       </c>
       <c r="D16" s="4">
-        <v>13.09555906536392</v>
+        <v>16.689920266898081</v>
       </c>
       <c r="E16" s="4">
-        <v>2.9434530342819931</v>
+        <v>3.2858483742721898</v>
       </c>
       <c r="F16" s="4">
-        <v>3.262142556548786</v>
+        <v>3.501770180271881</v>
       </c>
       <c r="G16">
-        <v>73.949880156039782</v>
+        <v>51.636034317252737</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
@@ -1073,22 +1073,22 @@
         <v>9</v>
       </c>
       <c r="B17" s="4">
-        <v>24.984053462119</v>
+        <v>59.327933234162799</v>
       </c>
       <c r="C17" s="4">
-        <v>11.36425081975875</v>
+        <v>12.24613693018126</v>
       </c>
       <c r="D17" s="4">
-        <v>10.578343946786349</v>
+        <v>12.50835802678043</v>
       </c>
       <c r="E17" s="4">
-        <v>4.1503884384178154</v>
+        <v>9.3389549313074447</v>
       </c>
       <c r="F17" s="4">
-        <v>3.3035730875619511</v>
+        <v>4.4912833145667683</v>
       </c>
       <c r="G17">
-        <v>54.380609754643878</v>
+        <v>97.912666436998691</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -1111,22 +1111,22 @@
         <v>9</v>
       </c>
       <c r="B18" s="4">
-        <v>132.228909589122</v>
+        <v>9.3792260348118379</v>
       </c>
       <c r="C18" s="4">
-        <v>13.38317636968212</v>
+        <v>36.008587214956322</v>
       </c>
       <c r="D18" s="4">
-        <v>29.535408351512491</v>
+        <v>18.252695087551299</v>
       </c>
       <c r="E18" s="4">
-        <v>6.0045239324720541</v>
+        <v>4.6067500243555877</v>
       </c>
       <c r="F18" s="4">
-        <v>3.3833165925744382</v>
+        <v>4.9256270429548898</v>
       </c>
       <c r="G18">
-        <v>184.5353348353631</v>
+        <v>73.172885404629923</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -1149,22 +1149,22 @@
         <v>9</v>
       </c>
       <c r="B19" s="4">
-        <v>26.023898037096149</v>
+        <v>33.495872473736263</v>
       </c>
       <c r="C19" s="4">
-        <v>17.90090111806623</v>
+        <v>27.601395829541669</v>
       </c>
       <c r="D19" s="4">
-        <v>68.018149418803631</v>
+        <v>40.718767200801409</v>
       </c>
       <c r="E19" s="4">
-        <v>8.3769613927095108</v>
+        <v>6.2983122418304918</v>
       </c>
       <c r="F19" s="4">
-        <v>3.399668795868779</v>
+        <v>4.98917997158284</v>
       </c>
       <c r="G19">
-        <v>123.7195787625443</v>
+        <v>113.1035277174927</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
@@ -1187,22 +1187,22 @@
         <v>9</v>
       </c>
       <c r="B20" s="4">
-        <v>9.5554795180264893</v>
+        <v>6.1952003989869349</v>
       </c>
       <c r="C20" s="4">
-        <v>18.603015977784079</v>
+        <v>20.45759190261462</v>
       </c>
       <c r="D20" s="4">
-        <v>16.689920266898081</v>
+        <v>12.546923413692509</v>
       </c>
       <c r="E20" s="4">
-        <v>3.2858483742721898</v>
+        <v>4.26446267760452</v>
       </c>
       <c r="F20" s="4">
-        <v>3.501770180271881</v>
+        <v>5.5642041602040084</v>
       </c>
       <c r="G20">
-        <v>51.636034317252737</v>
+        <v>49.028382553102603</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
@@ -1224,23 +1224,23 @@
       <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="3">
-        <v>14.90924229690091</v>
-      </c>
-      <c r="C21" s="3">
-        <v>8.6369334700549452</v>
-      </c>
-      <c r="D21" s="3">
-        <v>8.3581198145589823</v>
-      </c>
-      <c r="E21" s="3">
-        <v>5.1928456779694159</v>
-      </c>
-      <c r="F21" s="3">
-        <v>3.6010833449977651</v>
+      <c r="B21" s="4">
+        <v>124.5958436691772</v>
+      </c>
+      <c r="C21" s="4">
+        <v>39.646045582464403</v>
+      </c>
+      <c r="D21" s="4">
+        <v>7.2652929055397557</v>
+      </c>
+      <c r="E21" s="4">
+        <v>7.5166322764220306</v>
+      </c>
+      <c r="F21" s="4">
+        <v>5.8487548048062674</v>
       </c>
       <c r="G21">
-        <v>40.698224604482022</v>
+        <v>184.8725692384096</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
       </c>
       <c r="L21" t="s">
         <v>12</v>
@@ -1262,23 +1262,23 @@
       <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="3">
-        <v>25.47603913446526</v>
-      </c>
-      <c r="C22" s="3">
-        <v>46.844639011708409</v>
-      </c>
-      <c r="D22" s="3">
-        <v>24.09321079638358</v>
-      </c>
-      <c r="E22" s="3">
-        <v>4.7770323653553017</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3.8273319625299629</v>
+      <c r="B22" s="4">
+        <v>45.413533316493272</v>
+      </c>
+      <c r="C22" s="4">
+        <v>26.714302223063591</v>
+      </c>
+      <c r="D22" s="4">
+        <v>74.687939090761617</v>
+      </c>
+      <c r="E22" s="4">
+        <v>15.12791765727688</v>
+      </c>
+      <c r="F22" s="4">
+        <v>6.3210911634206237</v>
       </c>
       <c r="G22">
-        <v>105.0182532704425</v>
+        <v>168.264783451016</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1287,10 +1287,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>22</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
       </c>
       <c r="L22" t="s">
         <v>12</v>
@@ -1300,23 +1300,23 @@
       <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="3">
-        <v>6.8814656201375328</v>
-      </c>
-      <c r="C23" s="3">
-        <v>7.8868670856021739</v>
-      </c>
-      <c r="D23" s="3">
-        <v>7.0494962734452749</v>
-      </c>
-      <c r="E23" s="3">
-        <v>4.1183921700344852</v>
-      </c>
-      <c r="F23" s="3">
-        <v>3.8943760468298732</v>
+      <c r="B23" s="4">
+        <v>4837.6830321010339</v>
+      </c>
+      <c r="C23" s="4">
+        <v>232.5203435652227</v>
+      </c>
+      <c r="D23" s="4">
+        <v>295.79976348367802</v>
+      </c>
+      <c r="E23" s="4">
+        <v>376.33636403781873</v>
+      </c>
+      <c r="F23" s="4">
+        <v>136.85024168323781</v>
       </c>
       <c r="G23">
-        <v>29.830597196049339</v>
+        <v>5879.1897448709897</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1325,10 +1325,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
       </c>
       <c r="L23" t="s">
         <v>12</v>
@@ -1339,22 +1339,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3">
-        <v>8.6402796135084934</v>
+        <v>17.558311608528349</v>
       </c>
       <c r="C24" s="3">
-        <v>5.025868916529121</v>
+        <v>19.466721200702391</v>
       </c>
       <c r="D24" s="3">
-        <v>16.887006046294751</v>
+        <v>15.51603178288884</v>
       </c>
       <c r="E24" s="3">
-        <v>12.003875979825469</v>
+        <v>3.646889214760384</v>
       </c>
       <c r="F24" s="3">
-        <v>4.1023481372561648</v>
+        <v>1.426505278814594</v>
       </c>
       <c r="G24">
-        <v>46.659378693413977</v>
+        <v>57.614459085694548</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K24" s="3">
         <v>1</v>
@@ -1377,22 +1377,22 @@
         <v>9</v>
       </c>
       <c r="B25" s="3">
-        <v>13.20168270722435</v>
+        <v>13.217620732822139</v>
       </c>
       <c r="C25" s="3">
-        <v>10.20428040502882</v>
+        <v>18.302560730467238</v>
       </c>
       <c r="D25" s="3">
-        <v>22.405867243862541</v>
+        <v>14.5049246038595</v>
       </c>
       <c r="E25" s="3">
-        <v>5.4312530619258066</v>
+        <v>3.3847839384172378</v>
       </c>
       <c r="F25" s="3">
-        <v>4.1815463731769213</v>
+        <v>1.932239909123542</v>
       </c>
       <c r="G25">
-        <v>55.424629791218443</v>
+        <v>51.342129914689657</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K25" s="3">
         <v>1</v>
@@ -1414,23 +1414,23 @@
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="4">
-        <v>59.327933234162799</v>
-      </c>
-      <c r="C26" s="4">
-        <v>12.24613693018126</v>
-      </c>
-      <c r="D26" s="4">
-        <v>12.50835802678043</v>
-      </c>
-      <c r="E26" s="4">
-        <v>9.3389549313074447</v>
-      </c>
-      <c r="F26" s="4">
-        <v>4.4912833145667683</v>
+      <c r="B26" s="3">
+        <v>16.693554913506539</v>
+      </c>
+      <c r="C26" s="3">
+        <v>6.1692451928224772</v>
+      </c>
+      <c r="D26" s="3">
+        <v>13.09019575034135</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5.2427272059822823</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2.7178182162646598</v>
       </c>
       <c r="G26">
-        <v>97.912666436998691</v>
+        <v>43.913541278917307</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1439,10 +1439,10 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
       </c>
       <c r="L26" t="s">
         <v>12</v>
@@ -1453,22 +1453,22 @@
         <v>9</v>
       </c>
       <c r="B27" s="3">
-        <v>14.364462723947099</v>
+        <v>21.843439292140509</v>
       </c>
       <c r="C27" s="3">
-        <v>6.7844546091972058</v>
+        <v>6.4571373236517378</v>
       </c>
       <c r="D27" s="3">
-        <v>17.087886347279149</v>
+        <v>2.7879115492744271</v>
       </c>
       <c r="E27" s="3">
-        <v>6.6864482707338748</v>
+        <v>7.0563471301055687</v>
       </c>
       <c r="F27" s="3">
-        <v>4.6518423623712826</v>
+        <v>3.2589871201476468</v>
       </c>
       <c r="G27">
-        <v>49.575094313528624</v>
+        <v>41.403822415319887</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K27" s="3">
         <v>1</v>
@@ -1490,23 +1490,23 @@
       <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="4">
-        <v>9.3792260348118379</v>
-      </c>
-      <c r="C28" s="4">
-        <v>36.008587214956322</v>
-      </c>
-      <c r="D28" s="4">
-        <v>18.252695087551299</v>
-      </c>
-      <c r="E28" s="4">
-        <v>4.6067500243555877</v>
-      </c>
-      <c r="F28" s="4">
-        <v>4.9256270429548898</v>
+      <c r="B28" s="3">
+        <v>14.90924229690091</v>
+      </c>
+      <c r="C28" s="3">
+        <v>8.6369334700549452</v>
+      </c>
+      <c r="D28" s="3">
+        <v>8.3581198145589823</v>
+      </c>
+      <c r="E28" s="3">
+        <v>5.1928456779694159</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3.6010833449977651</v>
       </c>
       <c r="G28">
-        <v>73.172885404629923</v>
+        <v>40.698224604482022</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1515,10 +1515,10 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>13</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
       </c>
       <c r="L28" t="s">
         <v>12</v>
@@ -1528,23 +1528,23 @@
       <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="4">
-        <v>33.495872473736263</v>
-      </c>
-      <c r="C29" s="4">
-        <v>27.601395829541669</v>
-      </c>
-      <c r="D29" s="4">
-        <v>40.718767200801409</v>
-      </c>
-      <c r="E29" s="4">
-        <v>6.2983122418304918</v>
-      </c>
-      <c r="F29" s="4">
-        <v>4.98917997158284</v>
+      <c r="B29" s="3">
+        <v>25.47603913446526</v>
+      </c>
+      <c r="C29" s="3">
+        <v>46.844639011708409</v>
+      </c>
+      <c r="D29" s="3">
+        <v>24.09321079638358</v>
+      </c>
+      <c r="E29" s="3">
+        <v>4.7770323653553017</v>
+      </c>
+      <c r="F29" s="3">
+        <v>3.8273319625299629</v>
       </c>
       <c r="G29">
-        <v>113.1035277174927</v>
+        <v>105.0182532704425</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1553,10 +1553,10 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>20</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
       </c>
       <c r="L29" t="s">
         <v>12</v>
@@ -1567,22 +1567,22 @@
         <v>9</v>
       </c>
       <c r="B30" s="3">
-        <v>16.79417966776035</v>
+        <v>6.8814656201375328</v>
       </c>
       <c r="C30" s="3">
-        <v>7.8685272047918362</v>
+        <v>7.8868670856021739</v>
       </c>
       <c r="D30" s="3">
-        <v>23.777728589695251</v>
+        <v>7.0494962734452749</v>
       </c>
       <c r="E30" s="3">
-        <v>10.89522149581167</v>
+        <v>4.1183921700344852</v>
       </c>
       <c r="F30" s="3">
-        <v>5.1421514978217449</v>
+        <v>3.8943760468298732</v>
       </c>
       <c r="G30">
-        <v>64.477808455880862</v>
+        <v>29.830597196049339</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K30" s="3">
         <v>1</v>
@@ -1605,22 +1605,22 @@
         <v>9</v>
       </c>
       <c r="B31" s="3">
-        <v>377.10907010885148</v>
+        <v>8.6402796135084934</v>
       </c>
       <c r="C31" s="3">
-        <v>94.900853283499288</v>
+        <v>5.025868916529121</v>
       </c>
       <c r="D31" s="3">
-        <v>28.95898566627546</v>
+        <v>16.887006046294751</v>
       </c>
       <c r="E31" s="3">
-        <v>12.52566349326198</v>
+        <v>12.003875979825469</v>
       </c>
       <c r="F31" s="3">
-        <v>5.2386636068968064</v>
+        <v>4.1023481372561648</v>
       </c>
       <c r="G31">
-        <v>518.73323615878519</v>
+        <v>46.659378693413977</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K31" s="3">
         <v>1</v>
@@ -1642,23 +1642,23 @@
       <c r="A32" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="4">
-        <v>6.1952003989869349</v>
-      </c>
-      <c r="C32" s="4">
-        <v>20.45759190261462</v>
-      </c>
-      <c r="D32" s="4">
-        <v>12.546923413692509</v>
-      </c>
-      <c r="E32" s="4">
-        <v>4.26446267760452</v>
-      </c>
-      <c r="F32" s="4">
-        <v>5.5642041602040084</v>
+      <c r="B32" s="3">
+        <v>13.20168270722435</v>
+      </c>
+      <c r="C32" s="3">
+        <v>10.20428040502882</v>
+      </c>
+      <c r="D32" s="3">
+        <v>22.405867243862541</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5.4312530619258066</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4.1815463731769213</v>
       </c>
       <c r="G32">
-        <v>49.028382553102603</v>
+        <v>55.424629791218443</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1667,10 +1667,10 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>6</v>
-      </c>
-      <c r="K32" s="4">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1</v>
       </c>
       <c r="L32" t="s">
         <v>12</v>
@@ -1680,23 +1680,23 @@
       <c r="A33" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="4">
-        <v>124.5958436691772</v>
-      </c>
-      <c r="C33" s="4">
-        <v>39.646045582464403</v>
-      </c>
-      <c r="D33" s="4">
-        <v>7.2652929055397557</v>
-      </c>
-      <c r="E33" s="4">
-        <v>7.5166322764220306</v>
-      </c>
-      <c r="F33" s="4">
-        <v>5.8487548048062674</v>
+      <c r="B33" s="3">
+        <v>14.364462723947099</v>
+      </c>
+      <c r="C33" s="3">
+        <v>6.7844546091972058</v>
+      </c>
+      <c r="D33" s="3">
+        <v>17.087886347279149</v>
+      </c>
+      <c r="E33" s="3">
+        <v>6.6864482707338748</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4.6518423623712826</v>
       </c>
       <c r="G33">
-        <v>184.8725692384096</v>
+        <v>49.575094313528624</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1705,10 +1705,10 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>9</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
       </c>
       <c r="L33" t="s">
         <v>12</v>
@@ -1719,22 +1719,22 @@
         <v>9</v>
       </c>
       <c r="B34" s="3">
-        <v>26.15862688407783</v>
+        <v>16.79417966776035</v>
       </c>
       <c r="C34" s="3">
-        <v>37.943249099849687</v>
+        <v>7.8685272047918362</v>
       </c>
       <c r="D34" s="3">
-        <v>110.9203960479993</v>
+        <v>23.777728589695251</v>
       </c>
       <c r="E34" s="3">
-        <v>14.21766857855267</v>
+        <v>10.89522149581167</v>
       </c>
       <c r="F34" s="3">
-        <v>6.1205373317451093</v>
+        <v>5.1421514978217449</v>
       </c>
       <c r="G34">
-        <v>195.36047794222469</v>
+        <v>64.477808455880862</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K34" s="3">
         <v>1</v>
@@ -1757,22 +1757,22 @@
         <v>9</v>
       </c>
       <c r="B35" s="3">
-        <v>20.872884909779611</v>
+        <v>377.10907010885148</v>
       </c>
       <c r="C35" s="3">
-        <v>24.319166468220509</v>
+        <v>94.900853283499288</v>
       </c>
       <c r="D35" s="3">
-        <v>112.3490189168636</v>
+        <v>28.95898566627546</v>
       </c>
       <c r="E35" s="3">
-        <v>14.528372061008589</v>
+        <v>12.52566349326198</v>
       </c>
       <c r="F35" s="3">
-        <v>6.1379417521060811</v>
+        <v>5.2386636068968064</v>
       </c>
       <c r="G35">
-        <v>178.20738410797841</v>
+        <v>518.73323615878519</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K35" s="3">
         <v>1</v>
@@ -1795,22 +1795,22 @@
         <v>9</v>
       </c>
       <c r="B36" s="3">
-        <v>17.313441335906901</v>
+        <v>26.15862688407783</v>
       </c>
       <c r="C36" s="3">
-        <v>10.646292414861369</v>
+        <v>37.943249099849687</v>
       </c>
       <c r="D36" s="3">
-        <v>12.919652242785141</v>
+        <v>110.9203960479993</v>
       </c>
       <c r="E36" s="3">
-        <v>12.35829249884643</v>
+        <v>14.21766857855267</v>
       </c>
       <c r="F36" s="3">
-        <v>6.2574911617333857</v>
+        <v>6.1205373317451093</v>
       </c>
       <c r="G36">
-        <v>59.495169654133242</v>
+        <v>195.36047794222469</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K36" s="3">
         <v>1</v>
@@ -1832,23 +1832,23 @@
       <c r="A37" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="4">
-        <v>45.413533316493272</v>
-      </c>
-      <c r="C37" s="4">
-        <v>26.714302223063591</v>
-      </c>
-      <c r="D37" s="4">
-        <v>74.687939090761617</v>
-      </c>
-      <c r="E37" s="4">
-        <v>15.12791765727688</v>
-      </c>
-      <c r="F37" s="4">
-        <v>6.3210911634206237</v>
+      <c r="B37" s="3">
+        <v>20.872884909779611</v>
+      </c>
+      <c r="C37" s="3">
+        <v>24.319166468220509</v>
+      </c>
+      <c r="D37" s="3">
+        <v>112.3490189168636</v>
+      </c>
+      <c r="E37" s="3">
+        <v>14.528372061008589</v>
+      </c>
+      <c r="F37" s="3">
+        <v>6.1379417521060811</v>
       </c>
       <c r="G37">
-        <v>168.264783451016</v>
+        <v>178.20738410797841</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1857,10 +1857,10 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>11</v>
-      </c>
-      <c r="K37" s="4">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="K37" s="3">
+        <v>1</v>
       </c>
       <c r="L37" t="s">
         <v>12</v>
@@ -1871,22 +1871,22 @@
         <v>9</v>
       </c>
       <c r="B38" s="3">
-        <v>161.130181151242</v>
+        <v>17.313441335906901</v>
       </c>
       <c r="C38" s="3">
-        <v>40.923437160020853</v>
+        <v>10.646292414861369</v>
       </c>
       <c r="D38" s="3">
-        <v>15.91366016335841</v>
+        <v>12.919652242785141</v>
       </c>
       <c r="E38" s="3">
-        <v>11.08299520442959</v>
+        <v>12.35829249884643</v>
       </c>
       <c r="F38" s="3">
-        <v>6.5904328161054524</v>
+        <v>6.2574911617333857</v>
       </c>
       <c r="G38">
-        <v>235.64070649515619</v>
+        <v>59.495169654133242</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="K38" s="3">
         <v>1</v>
@@ -1909,22 +1909,22 @@
         <v>9</v>
       </c>
       <c r="B39" s="3">
-        <v>23.449461749916331</v>
+        <v>161.130181151242</v>
       </c>
       <c r="C39" s="3">
-        <v>13.6722705264176</v>
+        <v>40.923437160020853</v>
       </c>
       <c r="D39" s="3">
-        <v>10.78140970622367</v>
+        <v>15.91366016335841</v>
       </c>
       <c r="E39" s="3">
-        <v>9.2828745738899343</v>
+        <v>11.08299520442959</v>
       </c>
       <c r="F39" s="3">
-        <v>7.5744099566417136</v>
+        <v>6.5904328161054524</v>
       </c>
       <c r="G39">
-        <v>64.760426513089243</v>
+        <v>235.64070649515619</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="K39" s="3">
         <v>1</v>
@@ -1947,22 +1947,22 @@
         <v>9</v>
       </c>
       <c r="B40" s="3">
-        <v>10.82081561302085</v>
+        <v>23.449461749916331</v>
       </c>
       <c r="C40" s="3">
-        <v>18.035296198701431</v>
+        <v>13.6722705264176</v>
       </c>
       <c r="D40" s="3">
-        <v>57.472528681912749</v>
+        <v>10.78140970622367</v>
       </c>
       <c r="E40" s="3">
-        <v>20.569849691176511</v>
+        <v>9.2828745738899343</v>
       </c>
       <c r="F40" s="3">
-        <v>7.9158748461611754</v>
+        <v>7.5744099566417136</v>
       </c>
       <c r="G40">
-        <v>114.8143650309727</v>
+        <v>64.760426513089243</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K40" s="3">
         <v>1</v>
@@ -1985,22 +1985,22 @@
         <v>9</v>
       </c>
       <c r="B41" s="3">
-        <v>40.720228914738087</v>
+        <v>10.82081561302085</v>
       </c>
       <c r="C41" s="3">
-        <v>6.7160457189148843</v>
+        <v>18.035296198701431</v>
       </c>
       <c r="D41" s="3">
-        <v>5.8882436731579881</v>
+        <v>57.472528681912749</v>
       </c>
       <c r="E41" s="3">
-        <v>8.5453413306891655</v>
+        <v>20.569849691176511</v>
       </c>
       <c r="F41" s="3">
-        <v>7.9765025993519707</v>
+        <v>7.9158748461611754</v>
       </c>
       <c r="G41">
-        <v>69.846362236852087</v>
+        <v>114.8143650309727</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K41" s="3">
         <v>1</v>
@@ -2023,22 +2023,22 @@
         <v>9</v>
       </c>
       <c r="B42" s="3">
-        <v>1623.648564278328</v>
+        <v>40.720228914738087</v>
       </c>
       <c r="C42" s="3">
-        <v>280.5395409365824</v>
+        <v>6.7160457189148843</v>
       </c>
       <c r="D42" s="3">
-        <v>41.452979171536519</v>
+        <v>5.8882436731579881</v>
       </c>
       <c r="E42" s="3">
-        <v>21.849281880479381</v>
+        <v>8.5453413306891655</v>
       </c>
       <c r="F42" s="3">
-        <v>11.153625856067089</v>
+        <v>7.9765025993519707</v>
       </c>
       <c r="G42">
-        <v>1978.643992122993</v>
+        <v>69.846362236852087</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K42" s="3">
         <v>1</v>
@@ -2061,22 +2061,22 @@
         <v>9</v>
       </c>
       <c r="B43" s="3">
-        <v>16.495713424306871</v>
+        <v>1623.648564278328</v>
       </c>
       <c r="C43" s="3">
-        <v>7.5606645393923353</v>
+        <v>280.5395409365824</v>
       </c>
       <c r="D43" s="3">
-        <v>7.7422833921946506</v>
+        <v>41.452979171536519</v>
       </c>
       <c r="E43" s="3">
-        <v>18.977784437839141</v>
+        <v>21.849281880479381</v>
       </c>
       <c r="F43" s="3">
-        <v>11.968748762380431</v>
+        <v>11.153625856067089</v>
       </c>
       <c r="G43">
-        <v>62.745194556113411</v>
+        <v>1978.643992122993</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2085,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K43" s="3">
         <v>1</v>
@@ -2099,22 +2099,22 @@
         <v>9</v>
       </c>
       <c r="B44" s="3">
-        <v>198.9221554665468</v>
+        <v>16.495713424306871</v>
       </c>
       <c r="C44" s="3">
-        <v>13.005717811655179</v>
+        <v>7.5606645393923353</v>
       </c>
       <c r="D44" s="3">
-        <v>54.385513860285627</v>
+        <v>7.7422833921946506</v>
       </c>
       <c r="E44" s="3">
-        <v>19.669086321013179</v>
+        <v>18.977784437839141</v>
       </c>
       <c r="F44" s="3">
-        <v>12.480538988384239</v>
+        <v>11.968748762380431</v>
       </c>
       <c r="G44">
-        <v>298.46301244788498</v>
+        <v>62.745194556113411</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K44" s="3">
         <v>1</v>
@@ -2137,22 +2137,22 @@
         <v>9</v>
       </c>
       <c r="B45" s="3">
-        <v>409.99432107637051</v>
+        <v>198.9221554665468</v>
       </c>
       <c r="C45" s="3">
-        <v>90.608376394924008</v>
+        <v>13.005717811655179</v>
       </c>
       <c r="D45" s="3">
-        <v>47.234813845960879</v>
+        <v>54.385513860285627</v>
       </c>
       <c r="E45" s="3">
-        <v>20.203213189775042</v>
+        <v>19.669086321013179</v>
       </c>
       <c r="F45" s="3">
-        <v>20.676880520337178</v>
+        <v>12.480538988384239</v>
       </c>
       <c r="G45">
-        <v>588.71760502736765</v>
+        <v>298.46301244788498</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K45" s="3">
         <v>1</v>
@@ -2175,22 +2175,22 @@
         <v>9</v>
       </c>
       <c r="B46" s="3">
-        <v>17.959419248543899</v>
+        <v>409.99432107637051</v>
       </c>
       <c r="C46" s="3">
-        <v>35.534441438174333</v>
+        <v>90.608376394924008</v>
       </c>
       <c r="D46" s="3">
-        <v>13.38739071959874</v>
+        <v>47.234813845960879</v>
       </c>
       <c r="E46" s="3">
-        <v>27.278820853825231</v>
+        <v>20.203213189775042</v>
       </c>
       <c r="F46" s="3">
-        <v>44.123667932765478</v>
+        <v>20.676880520337178</v>
       </c>
       <c r="G46">
-        <v>138.28374019290769</v>
+        <v>588.71760502736765</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2199,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="K46" s="3">
         <v>1</v>
@@ -2212,23 +2212,23 @@
       <c r="A47" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="4">
-        <v>4837.6830321010339</v>
-      </c>
-      <c r="C47" s="4">
-        <v>232.5203435652227</v>
-      </c>
-      <c r="D47" s="4">
-        <v>295.79976348367802</v>
-      </c>
-      <c r="E47" s="4">
-        <v>376.33636403781873</v>
-      </c>
-      <c r="F47" s="4">
-        <v>136.85024168323781</v>
+      <c r="B47" s="3">
+        <v>17.959419248543899</v>
+      </c>
+      <c r="C47" s="3">
+        <v>35.534441438174333</v>
+      </c>
+      <c r="D47" s="3">
+        <v>13.38739071959874</v>
+      </c>
+      <c r="E47" s="3">
+        <v>27.278820853825231</v>
+      </c>
+      <c r="F47" s="3">
+        <v>44.123667932765478</v>
       </c>
       <c r="G47">
-        <v>5879.1897448709897</v>
+        <v>138.28374019290769</v>
       </c>
       <c r="H47">
         <v>0.25</v>
@@ -2237,18 +2237,18 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>21</v>
-      </c>
-      <c r="K47" s="4">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="K47" s="3">
+        <v>1</v>
       </c>
       <c r="L47" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K51">
-    <sortCondition ref="F2:F51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L47">
+    <sortCondition ref="K2:K47"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
